--- a/02_MasterWifoMannheim/99_Backup/Course48.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course48.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A2011594AF0325E91F933" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1B9A8BC-43D3-4190-B9E2-3975733C41FA}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>ACC 560 Managerial Accounting (ACHTUNG: Kein Angebot im FSS 2021!)</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Managerial accounting refers to the preparation and use of information for internal planning, control, coordination, and performance evaluation purposes. financial accounting where the focus is on accounting disclosures to parties external to the firm. The first part of the course covers cost accounting, specifically issues involved in the design of an internal cost accounting system, and the role of accounting information in decision making. allocations, and activity-based management in manufacturing and service firms. The remaining part of the course will emphasize the role of internal accounting systems in evaluating the performance of individual business segments and divisions of the firm. Included in this part are topics related to the choice of internal pricing methods for transferring goods and services across divisions of the firm and the use of financial metrics for assessing the profitability of these divisions.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will become familiar with advanced issues in cost accounting and understand the role of cost accounting information in managerial decision making. Students will also develop a thorough understanding of performance measurement systems.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise Session 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>In-class discussion (30%), written exam (90 minutes, 70%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Stefan Reichelstein</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ACC 560 Managerial Accounting </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Managerial accounting refers to the preparation and use of information for internal planning, control, coordination, and performance evaluation purposes. financial accounting where the focus is on accounting disclosures to parties external to the firm. The first part of the course covers cost accounting, specifically issues involved in the design of an internal cost accounting system, and the role of accounting information in decision making. allocations, and activity-based management in manufacturing and service firms. The remaining part of the course will emphasize the role of internal accounting systems in evaluating the performance of individual business segments and divisions of the firm. Included in this part are topics related to the choice of internal pricing methods for transferring goods and services across divisions of the firm and the use of financial metrics for assessing the profitability of these divisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will become familiar with advanced issues in cost accounting and understand the role of cost accounting information in managerial decision making. Students will also develop a thorough understanding of performance measurement systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accounting and Taxation (AAT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise Session 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>In-class discussion (30%), written exam (90 minutes, 70%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Stefan Reichelstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
